--- a/layout_tipo_18.xlsx
+++ b/layout_tipo_18.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
